--- a/Resources/Fantasy.xlsx
+++ b/Resources/Fantasy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StasDon\Source\Repos\FantasyHSE\Fantasy\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\А\Documents\Visual Studio 2017\Projects\Fantasy\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1300,11 +1300,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="3" customWidth="1"/>
@@ -1312,7 +1312,7 @@
     <col min="4" max="4" width="7.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1408,34 +1408,34 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1448,8 +1448,35 @@
       <c r="D4" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1462,8 +1489,35 @@
       <c r="D5" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1476,8 +1530,35 @@
       <c r="D6" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1490,8 +1571,35 @@
       <c r="D7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1504,8 +1612,35 @@
       <c r="D8" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1518,8 +1653,35 @@
       <c r="D9" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1532,8 +1694,35 @@
       <c r="D10" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1546,8 +1735,35 @@
       <c r="D11" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1560,8 +1776,35 @@
       <c r="D12" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1574,8 +1817,35 @@
       <c r="D13" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1588,8 +1858,35 @@
       <c r="D14" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1602,8 +1899,35 @@
       <c r="D15" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1616,8 +1940,35 @@
       <c r="D16" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1630,8 +1981,35 @@
       <c r="D17" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1644,8 +2022,35 @@
       <c r="D18" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1658,8 +2063,35 @@
       <c r="D19" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1672,8 +2104,35 @@
       <c r="D20" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1686,8 +2145,35 @@
       <c r="D21" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1700,8 +2186,35 @@
       <c r="D22" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1714,8 +2227,35 @@
       <c r="D23" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1728,8 +2268,35 @@
       <c r="D24" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1742,8 +2309,35 @@
       <c r="D25" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1756,8 +2350,35 @@
       <c r="D26" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1770,8 +2391,35 @@
       <c r="D27" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1784,8 +2432,35 @@
       <c r="D28" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1798,8 +2473,35 @@
       <c r="D29" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1812,8 +2514,35 @@
       <c r="D30" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1826,8 +2555,35 @@
       <c r="D31" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1840,8 +2596,35 @@
       <c r="D32" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1854,8 +2637,35 @@
       <c r="D33" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1868,8 +2678,35 @@
       <c r="D34" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1882,8 +2719,35 @@
       <c r="D35" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1896,8 +2760,35 @@
       <c r="D36" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1910,8 +2801,35 @@
       <c r="D37" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1924,8 +2842,35 @@
       <c r="D38" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1938,8 +2883,35 @@
       <c r="D39" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1952,8 +2924,35 @@
       <c r="D40" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1966,8 +2965,35 @@
       <c r="D41" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1980,8 +3006,35 @@
       <c r="D42" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +3047,35 @@
       <c r="D43" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2008,8 +3088,35 @@
       <c r="D44" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2022,8 +3129,35 @@
       <c r="D45" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -2036,8 +3170,35 @@
       <c r="D46" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2050,8 +3211,35 @@
       <c r="D47" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2064,8 +3252,35 @@
       <c r="D48" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2078,8 +3293,35 @@
       <c r="D49" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2092,8 +3334,35 @@
       <c r="D50" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2106,8 +3375,35 @@
       <c r="D51" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -2120,8 +3416,35 @@
       <c r="D52" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2134,8 +3457,35 @@
       <c r="D53" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2148,8 +3498,35 @@
       <c r="D54" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2162,8 +3539,35 @@
       <c r="D55" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2176,8 +3580,35 @@
       <c r="D56" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2190,8 +3621,35 @@
       <c r="D57" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -2204,8 +3662,35 @@
       <c r="D58" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -2218,8 +3703,35 @@
       <c r="D59" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -2232,8 +3744,35 @@
       <c r="D60" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -2246,8 +3785,35 @@
       <c r="D61" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -2260,8 +3826,35 @@
       <c r="D62" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -2274,8 +3867,35 @@
       <c r="D63" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -2288,8 +3908,35 @@
       <c r="D64" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -2302,8 +3949,35 @@
       <c r="D65" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -2316,8 +3990,35 @@
       <c r="D66" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -2330,8 +4031,35 @@
       <c r="D67" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -2344,8 +4072,35 @@
       <c r="D68" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -2358,8 +4113,35 @@
       <c r="D69" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -2372,8 +4154,35 @@
       <c r="D70" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>249</v>
       </c>
@@ -2386,8 +4195,35 @@
       <c r="D71" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2400,8 +4236,35 @@
       <c r="D72" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2414,8 +4277,35 @@
       <c r="D73" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2428,8 +4318,35 @@
       <c r="D74" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2442,8 +4359,35 @@
       <c r="D75" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2456,8 +4400,35 @@
       <c r="D76" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -2470,8 +4441,35 @@
       <c r="D77" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -2484,8 +4482,35 @@
       <c r="D78" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -2498,8 +4523,35 @@
       <c r="D79" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2512,8 +4564,35 @@
       <c r="D80" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2526,8 +4605,35 @@
       <c r="D81" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -2540,8 +4646,35 @@
       <c r="D82" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -2554,8 +4687,35 @@
       <c r="D83" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -2568,8 +4728,35 @@
       <c r="D84" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -2582,8 +4769,35 @@
       <c r="D85" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -2596,8 +4810,35 @@
       <c r="D86" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -2610,8 +4851,35 @@
       <c r="D87" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2624,8 +4892,35 @@
       <c r="D88" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2638,8 +4933,35 @@
       <c r="D89" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -2652,8 +4974,35 @@
       <c r="D90" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -2666,8 +5015,35 @@
       <c r="D91" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -2680,8 +5056,35 @@
       <c r="D92" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -2694,8 +5097,35 @@
       <c r="D93" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -2708,8 +5138,35 @@
       <c r="D94" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -2722,8 +5179,35 @@
       <c r="D95" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -2736,8 +5220,35 @@
       <c r="D96" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -2750,8 +5261,35 @@
       <c r="D97" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -2764,8 +5302,35 @@
       <c r="D98" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -2778,8 +5343,35 @@
       <c r="D99" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -2792,8 +5384,35 @@
       <c r="D100" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -2806,8 +5425,35 @@
       <c r="D101" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -2820,8 +5466,35 @@
       <c r="D102" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -2834,8 +5507,35 @@
       <c r="D103" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>251</v>
       </c>
@@ -2848,8 +5548,35 @@
       <c r="D104" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -2862,8 +5589,35 @@
       <c r="D105" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -2876,8 +5630,35 @@
       <c r="D106" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -2890,8 +5671,35 @@
       <c r="D107" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -2904,8 +5712,35 @@
       <c r="D108" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -2918,8 +5753,35 @@
       <c r="D109" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -2932,8 +5794,35 @@
       <c r="D110" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -2946,8 +5835,35 @@
       <c r="D111" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -2960,8 +5876,35 @@
       <c r="D112" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -2974,8 +5917,35 @@
       <c r="D113" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -2988,8 +5958,35 @@
       <c r="D114" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -3002,8 +5999,35 @@
       <c r="D115" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -3016,8 +6040,35 @@
       <c r="D116" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -3030,8 +6081,35 @@
       <c r="D117" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>125</v>
       </c>
@@ -3044,8 +6122,35 @@
       <c r="D118" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -3058,8 +6163,35 @@
       <c r="D119" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -3072,8 +6204,35 @@
       <c r="D120" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3086,8 +6245,35 @@
       <c r="D121" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -3100,8 +6286,35 @@
       <c r="D122" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -3114,8 +6327,35 @@
       <c r="D123" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -3128,8 +6368,35 @@
       <c r="D124" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -3142,8 +6409,35 @@
       <c r="D125" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -3156,8 +6450,35 @@
       <c r="D126" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -3170,8 +6491,35 @@
       <c r="D127" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -3184,8 +6532,35 @@
       <c r="D128" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -3198,8 +6573,35 @@
       <c r="D129" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -3212,8 +6614,35 @@
       <c r="D130" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -3226,8 +6655,35 @@
       <c r="D131" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -3240,8 +6696,35 @@
       <c r="D132" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -3254,8 +6737,35 @@
       <c r="D133" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -3268,8 +6778,35 @@
       <c r="D134" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -3282,8 +6819,35 @@
       <c r="D135" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -3296,8 +6860,35 @@
       <c r="D136" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -3310,8 +6901,35 @@
       <c r="D137" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -3324,8 +6942,35 @@
       <c r="D138" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -3338,8 +6983,35 @@
       <c r="D139" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -3352,8 +7024,35 @@
       <c r="D140" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -3366,8 +7065,35 @@
       <c r="D141" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>131</v>
       </c>
@@ -3380,8 +7106,35 @@
       <c r="D142" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
         <v>148</v>
       </c>
@@ -3394,8 +7147,35 @@
       <c r="D143" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -3408,8 +7188,35 @@
       <c r="D144" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -3422,8 +7229,35 @@
       <c r="D145" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -3436,8 +7270,35 @@
       <c r="D146" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -3450,8 +7311,35 @@
       <c r="D147" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -3464,8 +7352,35 @@
       <c r="D148" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -3478,8 +7393,35 @@
       <c r="D149" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -3492,8 +7434,35 @@
       <c r="D150" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -3506,8 +7475,35 @@
       <c r="D151" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -3520,8 +7516,35 @@
       <c r="D152" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
         <v>37</v>
       </c>
@@ -3534,8 +7557,35 @@
       <c r="D153" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -3548,8 +7598,35 @@
       <c r="D154" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -3562,8 +7639,35 @@
       <c r="D155" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -3576,8 +7680,35 @@
       <c r="D156" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -3590,8 +7721,35 @@
       <c r="D157" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -3604,8 +7762,35 @@
       <c r="D158" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -3618,8 +7803,35 @@
       <c r="D159" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -3632,8 +7844,35 @@
       <c r="D160" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -3646,8 +7885,35 @@
       <c r="D161" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -3660,8 +7926,35 @@
       <c r="D162" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -3674,8 +7967,35 @@
       <c r="D163" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -3688,8 +8008,35 @@
       <c r="D164" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -3702,8 +8049,35 @@
       <c r="D165" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -3716,8 +8090,35 @@
       <c r="D166" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -3730,8 +8131,35 @@
       <c r="D167" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -3744,8 +8172,35 @@
       <c r="D168" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -3758,8 +8213,35 @@
       <c r="D169" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -3772,8 +8254,35 @@
       <c r="D170" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -3786,8 +8295,35 @@
       <c r="D171" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -3800,8 +8336,35 @@
       <c r="D172" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -3814,8 +8377,35 @@
       <c r="D173" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -3828,8 +8418,35 @@
       <c r="D174" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
         <v>182</v>
       </c>
@@ -3842,8 +8459,35 @@
       <c r="D175" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -3856,8 +8500,35 @@
       <c r="D176" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -3870,8 +8541,35 @@
       <c r="D177" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
         <v>69</v>
       </c>
@@ -3884,8 +8582,35 @@
       <c r="D178" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -3898,8 +8623,35 @@
       <c r="D179" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -3912,8 +8664,35 @@
       <c r="D180" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -3926,8 +8705,35 @@
       <c r="D181" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -3940,8 +8746,35 @@
       <c r="D182" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -3954,8 +8787,35 @@
       <c r="D183" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -3968,8 +8828,35 @@
       <c r="D184" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -3982,8 +8869,35 @@
       <c r="D185" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
         <v>209</v>
       </c>
@@ -3996,8 +8910,35 @@
       <c r="D186" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
         <v>210</v>
       </c>
@@ -4010,8 +8951,35 @@
       <c r="D187" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
         <v>211</v>
       </c>
@@ -4024,8 +8992,35 @@
       <c r="D188" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A189" t="s">
         <v>212</v>
       </c>
@@ -4038,8 +9033,35 @@
       <c r="D189" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
         <v>225</v>
       </c>
@@ -4052,8 +9074,35 @@
       <c r="D190" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
         <v>216</v>
       </c>
@@ -4066,8 +9115,35 @@
       <c r="D191" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
         <v>213</v>
       </c>
@@ -4080,8 +9156,35 @@
       <c r="D192" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
         <v>214</v>
       </c>
@@ -4094,8 +9197,35 @@
       <c r="D193" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
         <v>215</v>
       </c>
@@ -4108,8 +9238,35 @@
       <c r="D194" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A195" t="s">
         <v>217</v>
       </c>
@@ -4122,8 +9279,35 @@
       <c r="D195" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
         <v>218</v>
       </c>
@@ -4136,8 +9320,35 @@
       <c r="D196" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -4150,8 +9361,35 @@
       <c r="D197" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
         <v>219</v>
       </c>
@@ -4164,8 +9402,35 @@
       <c r="D198" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
         <v>61</v>
       </c>
@@ -4178,8 +9443,35 @@
       <c r="D199" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
         <v>222</v>
       </c>
@@ -4192,8 +9484,35 @@
       <c r="D200" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A201" t="s">
         <v>221</v>
       </c>
@@ -4206,8 +9525,35 @@
       <c r="D201" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -4220,8 +9566,35 @@
       <c r="D202" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -4234,8 +9607,35 @@
       <c r="D203" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
         <v>226</v>
       </c>
@@ -4248,8 +9648,35 @@
       <c r="D204" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -4262,8 +9689,35 @@
       <c r="D205" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -4276,8 +9730,35 @@
       <c r="D206" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -4290,8 +9771,35 @@
       <c r="D207" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -4304,8 +9812,35 @@
       <c r="D208" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
         <v>234</v>
       </c>
@@ -4318,8 +9853,35 @@
       <c r="D209" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
         <v>232</v>
       </c>
@@ -4332,8 +9894,35 @@
       <c r="D210" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A211" t="s">
         <v>233</v>
       </c>
@@ -4346,8 +9935,35 @@
       <c r="D211" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -4360,8 +9976,35 @@
       <c r="D212" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -4374,8 +10017,35 @@
       <c r="D213" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -4388,8 +10058,35 @@
       <c r="D214" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -4402,8 +10099,35 @@
       <c r="D215" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -4416,8 +10140,35 @@
       <c r="D216" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -4430,8 +10181,35 @@
       <c r="D217" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -4444,8 +10222,35 @@
       <c r="D218" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -4458,8 +10263,35 @@
       <c r="D219" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -4472,8 +10304,35 @@
       <c r="D220" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A221" t="s">
         <v>250</v>
       </c>
@@ -4486,8 +10345,35 @@
       <c r="D221" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
         <v>243</v>
       </c>
@@ -4500,8 +10386,35 @@
       <c r="D222" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -4514,8 +10427,35 @@
       <c r="D223" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -4527,6 +10467,33 @@
       </c>
       <c r="D224" s="3">
         <v>8</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Fantasy.xlsx
+++ b/Resources/Fantasy.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="262">
   <si>
     <t>Фамилия</t>
   </si>
@@ -814,6 +814,9 @@
   </si>
   <si>
     <t>Сухой матч</t>
+  </si>
+  <si>
+    <t>Сборная тура</t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:N224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="D51" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1312,7 +1315,7 @@
     <col min="4" max="4" width="7.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,8 +1355,11 @@
       <c r="M1" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N1" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1393,8 +1399,11 @@
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1408,34 +1417,37 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1449,34 +1461,37 @@
         <v>5.5</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1516,8 +1531,11 @@
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1557,8 +1575,11 @@
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1598,8 +1619,11 @@
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1639,8 +1663,11 @@
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1680,8 +1707,11 @@
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1721,8 +1751,11 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1762,8 +1795,11 @@
       <c r="M11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1803,8 +1839,11 @@
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1844,8 +1883,11 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1885,8 +1927,11 @@
       <c r="M14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1926,8 +1971,11 @@
       <c r="M15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1967,8 +2015,11 @@
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2008,8 +2059,11 @@
       <c r="M17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2049,8 +2103,11 @@
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2090,8 +2147,11 @@
       <c r="M19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2131,8 +2191,11 @@
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2172,8 +2235,11 @@
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2213,8 +2279,11 @@
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2254,8 +2323,11 @@
       <c r="M23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2295,8 +2367,11 @@
       <c r="M24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2336,8 +2411,11 @@
       <c r="M25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2377,8 +2455,11 @@
       <c r="M26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2418,8 +2499,11 @@
       <c r="M27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2459,8 +2543,11 @@
       <c r="M28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2500,8 +2587,11 @@
       <c r="M29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2541,8 +2631,11 @@
       <c r="M30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2582,8 +2675,11 @@
       <c r="M31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2623,8 +2719,11 @@
       <c r="M32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2664,8 +2763,11 @@
       <c r="M33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2705,8 +2807,11 @@
       <c r="M34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2746,8 +2851,11 @@
       <c r="M35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2787,8 +2895,11 @@
       <c r="M36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2828,8 +2939,11 @@
       <c r="M37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2869,8 +2983,11 @@
       <c r="M38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2910,8 +3027,11 @@
       <c r="M39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2951,8 +3071,11 @@
       <c r="M40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2992,8 +3115,11 @@
       <c r="M41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3033,8 +3159,11 @@
       <c r="M42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -3074,8 +3203,11 @@
       <c r="M43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -3115,8 +3247,11 @@
       <c r="M44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -3156,8 +3291,11 @@
       <c r="M45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3197,8 +3335,11 @@
       <c r="M46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -3238,8 +3379,11 @@
       <c r="M47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -3279,8 +3423,11 @@
       <c r="M48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3320,8 +3467,11 @@
       <c r="M49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3361,8 +3511,11 @@
       <c r="M50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3402,8 +3555,11 @@
       <c r="M51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3443,8 +3599,11 @@
       <c r="M52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -3484,8 +3643,11 @@
       <c r="M53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -3525,8 +3687,11 @@
       <c r="M54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3566,8 +3731,11 @@
       <c r="M55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3607,8 +3775,11 @@
       <c r="M56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3648,8 +3819,11 @@
       <c r="M57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -3689,8 +3863,11 @@
       <c r="M58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -3730,8 +3907,11 @@
       <c r="M59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -3771,8 +3951,11 @@
       <c r="M60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -3812,8 +3995,11 @@
       <c r="M61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -3853,8 +4039,11 @@
       <c r="M62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -3894,8 +4083,11 @@
       <c r="M63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -3935,8 +4127,11 @@
       <c r="M64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -3976,8 +4171,11 @@
       <c r="M65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -4017,8 +4215,11 @@
       <c r="M66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -4058,8 +4259,11 @@
       <c r="M67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -4099,8 +4303,11 @@
       <c r="M68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -4140,8 +4347,11 @@
       <c r="M69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -4181,8 +4391,11 @@
       <c r="M70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>249</v>
       </c>
@@ -4222,8 +4435,11 @@
       <c r="M71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -4237,34 +4453,37 @@
         <v>11</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -4278,19 +4497,19 @@
         <v>12.5</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -4304,8 +4523,11 @@
       <c r="M73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -4345,8 +4567,11 @@
       <c r="M74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -4386,8 +4611,11 @@
       <c r="M75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4427,8 +4655,11 @@
       <c r="M76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -4468,8 +4699,11 @@
       <c r="M77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -4509,8 +4743,11 @@
       <c r="M78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -4550,8 +4787,11 @@
       <c r="M79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -4591,8 +4831,11 @@
       <c r="M80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -4632,8 +4875,11 @@
       <c r="M81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -4673,8 +4919,11 @@
       <c r="M82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -4714,8 +4963,11 @@
       <c r="M83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -4755,8 +5007,11 @@
       <c r="M84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -4796,8 +5051,11 @@
       <c r="M85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -4837,8 +5095,11 @@
       <c r="M86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -4878,8 +5139,11 @@
       <c r="M87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -4919,8 +5183,11 @@
       <c r="M88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -4960,8 +5227,11 @@
       <c r="M89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -5001,8 +5271,11 @@
       <c r="M90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -5042,8 +5315,11 @@
       <c r="M91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -5083,8 +5359,11 @@
       <c r="M92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -5124,8 +5403,11 @@
       <c r="M93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -5165,8 +5447,11 @@
       <c r="M94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -5206,8 +5491,11 @@
       <c r="M95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -5247,8 +5535,11 @@
       <c r="M96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -5288,8 +5579,11 @@
       <c r="M97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -5329,8 +5623,11 @@
       <c r="M98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -5370,8 +5667,11 @@
       <c r="M99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -5411,8 +5711,11 @@
       <c r="M100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5452,8 +5755,11 @@
       <c r="M101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -5493,8 +5799,11 @@
       <c r="M102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -5534,8 +5843,11 @@
       <c r="M103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>251</v>
       </c>
@@ -5575,8 +5887,11 @@
       <c r="M104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -5616,8 +5931,11 @@
       <c r="M105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -5657,8 +5975,11 @@
       <c r="M106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -5698,8 +6019,11 @@
       <c r="M107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -5739,8 +6063,11 @@
       <c r="M108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -5780,8 +6107,11 @@
       <c r="M109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -5821,8 +6151,11 @@
       <c r="M110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -5862,8 +6195,11 @@
       <c r="M111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -5903,8 +6239,11 @@
       <c r="M112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -5944,8 +6283,11 @@
       <c r="M113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -5985,8 +6327,11 @@
       <c r="M114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -6026,8 +6371,11 @@
       <c r="M115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -6067,8 +6415,11 @@
       <c r="M116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -6108,8 +6459,11 @@
       <c r="M117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>125</v>
       </c>
@@ -6149,8 +6503,11 @@
       <c r="M118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -6190,8 +6547,11 @@
       <c r="M119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -6231,8 +6591,11 @@
       <c r="M120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -6272,8 +6635,11 @@
       <c r="M121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -6313,8 +6679,11 @@
       <c r="M122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -6354,8 +6723,11 @@
       <c r="M123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -6395,8 +6767,11 @@
       <c r="M124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -6436,8 +6811,11 @@
       <c r="M125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -6477,8 +6855,11 @@
       <c r="M126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -6518,8 +6899,11 @@
       <c r="M127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -6559,8 +6943,11 @@
       <c r="M128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -6600,8 +6987,11 @@
       <c r="M129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -6641,8 +7031,11 @@
       <c r="M130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -6682,8 +7075,11 @@
       <c r="M131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -6723,8 +7119,11 @@
       <c r="M132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -6764,8 +7163,11 @@
       <c r="M133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -6805,8 +7207,11 @@
       <c r="M134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -6846,8 +7251,11 @@
       <c r="M135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -6887,8 +7295,11 @@
       <c r="M136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -6928,8 +7339,11 @@
       <c r="M137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -6969,8 +7383,11 @@
       <c r="M138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -7010,8 +7427,11 @@
       <c r="M139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -7051,8 +7471,11 @@
       <c r="M140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -7092,8 +7515,11 @@
       <c r="M141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>131</v>
       </c>
@@ -7133,8 +7559,11 @@
       <c r="M142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
         <v>148</v>
       </c>
@@ -7174,8 +7603,11 @@
       <c r="M143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -7215,8 +7647,11 @@
       <c r="M144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -7256,8 +7691,11 @@
       <c r="M145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -7297,8 +7735,11 @@
       <c r="M146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -7338,8 +7779,11 @@
       <c r="M147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -7379,8 +7823,11 @@
       <c r="M148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -7420,8 +7867,11 @@
       <c r="M149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -7461,8 +7911,11 @@
       <c r="M150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -7502,8 +7955,11 @@
       <c r="M151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -7543,8 +7999,11 @@
       <c r="M152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
         <v>37</v>
       </c>
@@ -7584,8 +8043,11 @@
       <c r="M153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -7625,8 +8087,11 @@
       <c r="M154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -7666,8 +8131,11 @@
       <c r="M155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -7707,8 +8175,11 @@
       <c r="M156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -7748,8 +8219,11 @@
       <c r="M157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -7789,8 +8263,11 @@
       <c r="M158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -7830,8 +8307,11 @@
       <c r="M159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -7871,8 +8351,11 @@
       <c r="M160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -7912,8 +8395,11 @@
       <c r="M161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -7953,8 +8439,11 @@
       <c r="M162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -7994,8 +8483,11 @@
       <c r="M163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -8035,8 +8527,11 @@
       <c r="M164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -8076,8 +8571,11 @@
       <c r="M165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -8117,8 +8615,11 @@
       <c r="M166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -8158,8 +8659,11 @@
       <c r="M167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -8199,8 +8703,11 @@
       <c r="M168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -8240,8 +8747,11 @@
       <c r="M169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -8281,8 +8791,11 @@
       <c r="M170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -8322,8 +8835,11 @@
       <c r="M171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -8363,8 +8879,11 @@
       <c r="M172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -8404,8 +8923,11 @@
       <c r="M173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -8445,8 +8967,11 @@
       <c r="M174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
         <v>182</v>
       </c>
@@ -8486,8 +9011,11 @@
       <c r="M175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -8527,8 +9055,11 @@
       <c r="M176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -8568,8 +9099,11 @@
       <c r="M177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
         <v>69</v>
       </c>
@@ -8609,8 +9143,11 @@
       <c r="M178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -8650,8 +9187,11 @@
       <c r="M179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -8691,8 +9231,11 @@
       <c r="M180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -8732,8 +9275,11 @@
       <c r="M181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -8773,8 +9319,11 @@
       <c r="M182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -8814,8 +9363,11 @@
       <c r="M183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -8855,8 +9407,11 @@
       <c r="M184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -8896,8 +9451,11 @@
       <c r="M185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
         <v>209</v>
       </c>
@@ -8937,8 +9495,11 @@
       <c r="M186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
         <v>210</v>
       </c>
@@ -8978,8 +9539,11 @@
       <c r="M187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
         <v>211</v>
       </c>
@@ -9019,8 +9583,11 @@
       <c r="M188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A189" t="s">
         <v>212</v>
       </c>
@@ -9060,8 +9627,11 @@
       <c r="M189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
         <v>225</v>
       </c>
@@ -9101,8 +9671,11 @@
       <c r="M190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
         <v>216</v>
       </c>
@@ -9142,8 +9715,11 @@
       <c r="M191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
         <v>213</v>
       </c>
@@ -9183,8 +9759,11 @@
       <c r="M192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
         <v>214</v>
       </c>
@@ -9224,8 +9803,11 @@
       <c r="M193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
         <v>215</v>
       </c>
@@ -9265,8 +9847,11 @@
       <c r="M194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A195" t="s">
         <v>217</v>
       </c>
@@ -9306,8 +9891,11 @@
       <c r="M195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
         <v>218</v>
       </c>
@@ -9347,8 +9935,11 @@
       <c r="M196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -9388,8 +9979,11 @@
       <c r="M197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
         <v>219</v>
       </c>
@@ -9429,8 +10023,11 @@
       <c r="M198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
         <v>61</v>
       </c>
@@ -9470,8 +10067,11 @@
       <c r="M199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
         <v>222</v>
       </c>
@@ -9511,8 +10111,11 @@
       <c r="M200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A201" t="s">
         <v>221</v>
       </c>
@@ -9552,8 +10155,11 @@
       <c r="M201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -9593,8 +10199,11 @@
       <c r="M202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -9634,8 +10243,11 @@
       <c r="M203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
         <v>226</v>
       </c>
@@ -9675,8 +10287,11 @@
       <c r="M204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -9716,8 +10331,11 @@
       <c r="M205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -9757,8 +10375,11 @@
       <c r="M206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -9798,8 +10419,11 @@
       <c r="M207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -9839,8 +10463,11 @@
       <c r="M208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
         <v>234</v>
       </c>
@@ -9880,8 +10507,11 @@
       <c r="M209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
         <v>232</v>
       </c>
@@ -9921,8 +10551,11 @@
       <c r="M210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A211" t="s">
         <v>233</v>
       </c>
@@ -9962,8 +10595,11 @@
       <c r="M211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -10003,8 +10639,11 @@
       <c r="M212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -10044,8 +10683,11 @@
       <c r="M213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -10085,8 +10727,11 @@
       <c r="M214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -10126,8 +10771,11 @@
       <c r="M215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -10167,8 +10815,11 @@
       <c r="M216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -10208,8 +10859,11 @@
       <c r="M217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -10249,8 +10903,11 @@
       <c r="M218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -10290,8 +10947,11 @@
       <c r="M219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -10331,8 +10991,11 @@
       <c r="M220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A221" t="s">
         <v>250</v>
       </c>
@@ -10372,8 +11035,11 @@
       <c r="M221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
         <v>243</v>
       </c>
@@ -10413,8 +11079,11 @@
       <c r="M222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -10454,8 +11123,11 @@
       <c r="M223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -10494,6 +11166,9 @@
       </c>
       <c r="M224">
         <v>1</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
